--- a/metadata/nft-spreadsheet-data.xlsx
+++ b/metadata/nft-spreadsheet-data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_924858E5C0DEB8026F15A6DB943E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F2F41E-D10C-47CF-8BA5-0941E08A83F8}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_924858E5C0DEB8026F15A6DB943E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E808EF-3F54-4D04-A3E3-2727FD340A81}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,19 +38,19 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Languages</t>
-  </si>
-  <si>
-    <t>Zodiac sign</t>
-  </si>
-  <si>
-    <t>Character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location </t>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>1st trait type (eg. Sport)</t>
+  </si>
+  <si>
+    <t>2nd trait type (eg. Languages)</t>
+  </si>
+  <si>
+    <t>3rd trait type (eg. Zodiac sign)</t>
   </si>
   <si>
     <t>Any creative name</t>
@@ -58,6 +59,12 @@
     <t>Provide a description for the particular ID</t>
   </si>
   <si>
+    <t>Smart contract developer</t>
+  </si>
+  <si>
+    <t>Vincent van Gogh</t>
+  </si>
+  <si>
     <t>Archery, Field hockey</t>
   </si>
   <si>
@@ -65,12 +72,6 @@
   </si>
   <si>
     <t>Pisces</t>
-  </si>
-  <si>
-    <t>Chaotic, ethical</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
   </si>
   <si>
     <t>Any attractive name</t>
@@ -121,12 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,14 +453,16 @@
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,13 +472,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -486,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,13 +498,13 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -512,7 +514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,13 +524,13 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
@@ -538,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -548,13 +550,13 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
@@ -564,18 +566,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="C10" s="2"/>
-      <c r="I10" s="1"/>
+    <row r="10" spans="1:11">
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metadata/nft-spreadsheet-data.xlsx
+++ b/metadata/nft-spreadsheet-data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_924858E5C0DEB8026F15A6DB943E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E808EF-3F54-4D04-A3E3-2727FD340A81}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_924858E5C0DEB8026F15A6DB943E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2895E84E-4B7B-4B65-A20E-FD93F28CE4C0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,16 +32,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>Artist</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>CREATOR</t>
+  </si>
+  <si>
+    <t>ARTIST</t>
   </si>
   <si>
     <t>1st trait type (eg. Sport)</t>
@@ -445,7 +445,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
